--- a/配置表/Fish001.xlsx
+++ b/配置表/Fish001.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKuaishou\配置表\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\gitee\danmufishKSGit\配置表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D0ECB59-003B-47F4-BFF6-F089F7A1073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBD2A739-A253-468E-9082-D19C7E14796B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Fish001" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -266,79 +266,40 @@
     <t>红章鱼</t>
   </si>
   <si>
-    <t>Fish/fish01/1012601</t>
-  </si>
-  <si>
     <t>斑斓长螺</t>
   </si>
   <si>
-    <t>Fish/fish01/1012701</t>
-  </si>
-  <si>
     <t>七彩扇贝</t>
   </si>
   <si>
-    <t>Fish/fish01/1012801</t>
-  </si>
-  <si>
     <t>螃蟹</t>
   </si>
   <si>
-    <t>Fish/fish01/1012901</t>
-  </si>
-  <si>
     <t>星螺</t>
   </si>
   <si>
-    <t>Fish/fish01/1013001</t>
-  </si>
-  <si>
     <t>篮彩螺</t>
   </si>
   <si>
-    <t>Fish/fish01/1013101</t>
-  </si>
-  <si>
     <t>血珊瑚</t>
   </si>
   <si>
-    <t>Fish/fish01/1013201</t>
-  </si>
-  <si>
     <t>黄金螺</t>
   </si>
   <si>
-    <t>Fish/fish01/1013301</t>
-  </si>
-  <si>
     <t>海龟</t>
   </si>
   <si>
-    <t>Fish/fish01/1013401</t>
-  </si>
-  <si>
     <t>星彩蚌</t>
   </si>
   <si>
-    <t>Fish/fish01/1013501</t>
-  </si>
-  <si>
     <t>炫彩水母</t>
   </si>
   <si>
-    <t>Fish/fish01/1013601</t>
-  </si>
-  <si>
     <t>炫彩法螺</t>
   </si>
   <si>
-    <t>Fish/fish01/1013701</t>
-  </si>
-  <si>
     <t>帝王蟹</t>
-  </si>
-  <si>
-    <t>Fish/fish01/1013801</t>
   </si>
   <si>
     <t>玩家</t>
@@ -654,39 +615,18 @@
     <t>侧带白齿鲤</t>
   </si>
   <si>
-    <t>帆鳍鱼</t>
-  </si>
-  <si>
-    <t>枯叶鱼</t>
-  </si>
-  <si>
     <t>沙丁鱼</t>
   </si>
   <si>
     <t>哈姆鱼</t>
   </si>
   <si>
-    <t>水滴鱼</t>
-  </si>
-  <si>
-    <t>大肚鲱</t>
-  </si>
-  <si>
     <t>吕宋花鮨</t>
   </si>
   <si>
-    <t>黑尾鮟鱇鱼</t>
-  </si>
-  <si>
-    <t>银色洞鳍鲷</t>
-  </si>
-  <si>
     <t>玻璃鱼</t>
   </si>
   <si>
-    <t>马鲛鱼</t>
-  </si>
-  <si>
     <t>虎鳟</t>
   </si>
   <si>
@@ -696,67 +636,52 @@
     <t>大菱鲆</t>
   </si>
   <si>
-    <t>鲑鳟鱼</t>
-  </si>
-  <si>
-    <t>大西洋鳕</t>
-  </si>
-  <si>
-    <t>管眼鱼</t>
-  </si>
-  <si>
-    <t>虹鳟</t>
-  </si>
-  <si>
-    <t>黑龙江鮰鱼</t>
-  </si>
-  <si>
     <t>斗鱼</t>
   </si>
   <si>
-    <t>黑鬼鱼</t>
-  </si>
-  <si>
-    <t>帕库鱼</t>
-  </si>
-  <si>
     <t>锦鲤</t>
   </si>
   <si>
-    <t>海魔鱼</t>
-  </si>
-  <si>
     <t>粉鲷</t>
   </si>
   <si>
-    <t>雪鲮</t>
-  </si>
-  <si>
-    <t>似鲭水狼牙</t>
-  </si>
-  <si>
-    <t>突吻角鮟鱇</t>
-  </si>
-  <si>
-    <t>哲罗鲑</t>
-  </si>
-  <si>
-    <t>大北鲑</t>
-  </si>
-  <si>
-    <t>白茴鱼</t>
-  </si>
-  <si>
-    <t>赤梢雅罗鱼</t>
-  </si>
-  <si>
     <t>大白鲨幼崽</t>
   </si>
   <si>
-    <t>剑鱼</t>
-  </si>
-  <si>
-    <t>睡鲨</t>
+    <t>米诺鱼</t>
+  </si>
+  <si>
+    <t>金鱼</t>
+  </si>
+  <si>
+    <t>小丑鱼</t>
+  </si>
+  <si>
+    <t>鳑鲏</t>
+  </si>
+  <si>
+    <t>河豚</t>
+  </si>
+  <si>
+    <t>恩古尼</t>
+  </si>
+  <si>
+    <t>桂鱼</t>
+  </si>
+  <si>
+    <t>牛蛙</t>
+  </si>
+  <si>
+    <t>狮子鱼</t>
+  </si>
+  <si>
+    <t>翻车鱼</t>
+  </si>
+  <si>
+    <t>金色龙鱼</t>
+  </si>
+  <si>
+    <t>蓝鳍金枪鱼</t>
   </si>
 </sst>
 </file>
@@ -1124,10 +1049,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N83"/>
+  <dimension ref="A1:N70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J40" sqref="J40"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1228,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="D3">
         <v>5</v>
@@ -1237,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>13180</v>
+        <v>25884</v>
       </c>
       <c r="G3" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>27</v>
@@ -1268,8 +1193,8 @@
       <c r="B4">
         <v>0</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>158</v>
+      <c r="C4" t="s">
+        <v>157</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -1278,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>12704</v>
+        <v>23979</v>
       </c>
       <c r="G4" s="6">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -1309,8 +1234,8 @@
       <c r="B5">
         <v>0</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>159</v>
+      <c r="C5" t="s">
+        <v>145</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -1319,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12228</v>
+        <v>22073</v>
       </c>
       <c r="G5" s="6">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -1350,8 +1275,8 @@
       <c r="B6">
         <v>0</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>160</v>
+      <c r="C6" t="s">
+        <v>158</v>
       </c>
       <c r="D6">
         <v>15</v>
@@ -1360,10 +1285,10 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>11751</v>
+        <v>20168</v>
       </c>
       <c r="G6" s="6">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="H6" t="s">
         <v>33</v>
@@ -1391,8 +1316,8 @@
       <c r="B7">
         <v>0</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>161</v>
+      <c r="C7" t="s">
+        <v>146</v>
       </c>
       <c r="D7">
         <v>18</v>
@@ -1401,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>11275</v>
+        <v>9369</v>
       </c>
       <c r="G7" s="6">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="H7" t="s">
         <v>35</v>
@@ -1433,7 +1358,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D8">
         <v>20</v>
@@ -1442,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>10798</v>
+        <v>8893</v>
       </c>
       <c r="G8" s="6">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="H8" t="s">
         <v>37</v>
@@ -1474,7 +1399,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="D9">
         <v>23</v>
@@ -1483,10 +1408,10 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>10322</v>
+        <v>8416</v>
       </c>
       <c r="G9" s="6">
-        <v>36</v>
+        <v>112</v>
       </c>
       <c r="H9" t="s">
         <v>39</v>
@@ -1515,7 +1440,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D10">
         <v>31</v>
@@ -1524,10 +1449,10 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9846</v>
+        <v>7940</v>
       </c>
       <c r="G10" s="6">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="H10" t="s">
         <v>41</v>
@@ -1555,8 +1480,8 @@
       <c r="B11">
         <v>0</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>165</v>
+      <c r="C11" t="s">
+        <v>161</v>
       </c>
       <c r="D11">
         <v>36</v>
@@ -1565,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>9369</v>
+        <v>7464</v>
       </c>
       <c r="G11" s="6">
-        <v>56</v>
+        <v>208</v>
       </c>
       <c r="H11" t="s">
         <v>43</v>
@@ -1597,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="D12">
         <v>38</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>8893</v>
+        <v>13498</v>
       </c>
       <c r="G12" s="6">
-        <v>104</v>
+        <v>400</v>
       </c>
       <c r="H12" t="s">
         <v>45</v>
@@ -1638,19 +1563,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D13">
         <v>42</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>8416</v>
+        <v>11592</v>
       </c>
       <c r="G13" s="6">
-        <v>112</v>
+        <v>560</v>
       </c>
       <c r="H13" t="s">
         <v>47</v>
@@ -1679,19 +1604,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D14">
         <v>44</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>7940</v>
+        <v>9687</v>
       </c>
       <c r="G14" s="6">
-        <v>160</v>
+        <v>760</v>
       </c>
       <c r="H14" t="s">
         <v>49</v>
@@ -1719,20 +1644,20 @@
       <c r="B15">
         <v>0</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>169</v>
+      <c r="C15" t="s">
+        <v>149</v>
       </c>
       <c r="D15">
         <v>47</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>7464</v>
+        <v>4129</v>
       </c>
       <c r="G15" s="6">
-        <v>208</v>
+        <v>880</v>
       </c>
       <c r="H15" t="s">
         <v>51</v>
@@ -1760,8 +1685,8 @@
       <c r="B16">
         <v>0</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>170</v>
+      <c r="C16" t="s">
+        <v>164</v>
       </c>
       <c r="D16">
         <v>50</v>
@@ -1770,10 +1695,10 @@
         <v>1</v>
       </c>
       <c r="F16">
-        <v>6987</v>
+        <v>3652</v>
       </c>
       <c r="G16" s="6">
-        <v>320</v>
+        <v>960</v>
       </c>
       <c r="H16" t="s">
         <v>53</v>
@@ -1794,7 +1719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>1011501</v>
       </c>
@@ -1802,7 +1727,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
       <c r="D17">
         <v>60</v>
@@ -1811,10 +1736,10 @@
         <v>1</v>
       </c>
       <c r="F17">
-        <v>6511</v>
+        <v>3176</v>
       </c>
       <c r="G17" s="6">
-        <v>480</v>
+        <v>1200</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
@@ -1835,7 +1760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>1011601</v>
       </c>
@@ -1843,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="C18" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="D18">
         <v>62</v>
@@ -1852,10 +1777,10 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>6034</v>
+        <v>2700</v>
       </c>
       <c r="G18" s="6">
-        <v>480</v>
+        <v>1920</v>
       </c>
       <c r="H18" t="s">
         <v>57</v>
@@ -1876,27 +1801,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>1011701</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>173</v>
+      <c r="C19" t="s">
+        <v>165</v>
       </c>
       <c r="D19">
         <v>64</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>5558</v>
+        <v>3070</v>
       </c>
       <c r="G19" s="6">
-        <v>640</v>
+        <v>2176</v>
       </c>
       <c r="H19" t="s">
         <v>59</v>
@@ -1917,27 +1842,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>1011801</v>
       </c>
       <c r="B20">
         <v>0</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>174</v>
+      <c r="C20" t="s">
+        <v>153</v>
       </c>
       <c r="D20">
         <v>70</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>5082</v>
+        <v>2510</v>
       </c>
       <c r="G20" s="6">
-        <v>720</v>
+        <v>2816</v>
       </c>
       <c r="H20" t="s">
         <v>61</v>
@@ -1958,7 +1883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>1011901</v>
       </c>
@@ -1966,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D21">
         <v>75</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>4605</v>
+        <v>1950</v>
       </c>
       <c r="G21" s="6">
-        <v>800</v>
+        <v>3328</v>
       </c>
       <c r="H21" t="s">
         <v>63</v>
@@ -1999,27 +1924,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>1012001</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>176</v>
+      <c r="C22" t="s">
+        <v>166</v>
       </c>
       <c r="D22">
         <v>75</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
-        <v>4129</v>
+        <v>765</v>
       </c>
       <c r="G22" s="6">
-        <v>880</v>
+        <v>3840</v>
       </c>
       <c r="H22" t="s">
         <v>65</v>
@@ -2040,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>1012101</v>
       </c>
@@ -2048,19 +1973,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D23">
         <v>77</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
-        <v>3652</v>
+        <v>625</v>
       </c>
       <c r="G23" s="6">
-        <v>960</v>
+        <v>4608</v>
       </c>
       <c r="H23" t="s">
         <v>67</v>
@@ -2081,27 +2006,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>1012201</v>
       </c>
       <c r="B24">
         <v>0</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>178</v>
+      <c r="C24" t="s">
+        <v>167</v>
       </c>
       <c r="D24">
         <v>80</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>3176</v>
+        <v>391</v>
       </c>
       <c r="G24" s="6">
-        <v>1200</v>
+        <v>5248</v>
       </c>
       <c r="H24" t="s">
         <v>69</v>
@@ -2122,7 +2047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>1012301</v>
       </c>
@@ -2130,19 +2055,19 @@
         <v>0</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="D25">
         <v>90</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>2700</v>
+        <v>269</v>
       </c>
       <c r="G25" s="6">
-        <v>1920</v>
+        <v>8960</v>
       </c>
       <c r="H25" t="s">
         <v>71</v>
@@ -2163,27 +2088,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>1012401</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>179</v>
+      <c r="C26" t="s">
+        <v>168</v>
       </c>
       <c r="D26">
         <v>100</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>1605</v>
+        <v>99</v>
       </c>
       <c r="G26" s="6">
-        <v>2048</v>
+        <v>12800</v>
       </c>
       <c r="H26" t="s">
         <v>72</v>
@@ -2204,7 +2129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>1012501</v>
       </c>
@@ -2212,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D27">
         <v>104</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F27">
-        <v>1465</v>
+        <v>80</v>
       </c>
       <c r="G27" s="6">
-        <v>2304</v>
+        <v>17280</v>
       </c>
       <c r="H27" t="s">
         <v>74</v>
@@ -2233,7 +2158,7 @@
         <v>1</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2245,30 +2170,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A28">
-        <v>1012601</v>
+        <v>1000002</v>
       </c>
       <c r="B28">
         <v>0</v>
       </c>
-      <c r="C28" t="s">
-        <v>181</v>
+      <c r="C28" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="D28">
-        <v>110</v>
+        <v>175</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F28">
-        <v>1325</v>
+        <v>25</v>
       </c>
       <c r="G28" s="6">
-        <v>2560</v>
+        <v>23110</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -2286,33 +2211,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A29">
-        <v>1012701</v>
+        <v>2000101</v>
       </c>
       <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29" t="s">
-        <v>182</v>
+        <v>1</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="D29">
-        <v>118</v>
+        <v>100</v>
       </c>
       <c r="E29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1185</v>
-      </c>
-      <c r="G29" s="6">
-        <v>3072</v>
+        <v>72</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2326,34 +2251,35 @@
       <c r="M29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A30">
-        <v>1012801</v>
+        <v>2000102</v>
       </c>
       <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30" t="s">
-        <v>183</v>
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="D30">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="E30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>1045</v>
-      </c>
-      <c r="G30" s="6">
-        <v>3072</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
+      </c>
+      <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>93</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2367,34 +2293,35 @@
       <c r="M30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A31">
-        <v>1012901</v>
+        <v>2000103</v>
       </c>
       <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s">
-        <v>184</v>
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="D31">
-        <v>134</v>
+        <v>15</v>
       </c>
       <c r="E31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>905</v>
-      </c>
-      <c r="G31" s="6">
-        <v>3584</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>95</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -2408,34 +2335,35 @@
       <c r="M31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A32">
-        <v>1013001</v>
+        <v>2000104</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="s">
-        <v>185</v>
+        <v>96</v>
       </c>
       <c r="D32">
-        <v>146</v>
+        <v>35</v>
       </c>
       <c r="E32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>765</v>
-      </c>
-      <c r="G32" s="6">
-        <v>3840</v>
+        <v>72</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
@@ -2449,34 +2377,35 @@
       <c r="M32">
         <v>0</v>
       </c>
+      <c r="N32" s="2"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A33">
-        <v>1013101</v>
+        <v>2000105</v>
       </c>
       <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33" t="s">
-        <v>186</v>
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="D33">
-        <v>151</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>625</v>
-      </c>
-      <c r="G33" s="6">
-        <v>4608</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>99</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
@@ -2490,34 +2419,35 @@
       <c r="M33">
         <v>0</v>
       </c>
+      <c r="N33" s="2"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A34">
-        <v>1013201</v>
+        <v>2000106</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s">
-        <v>187</v>
+        <v>1</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="D34">
-        <v>189</v>
+        <v>1</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>221</v>
-      </c>
-      <c r="G34" s="6">
-        <v>5120</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>88</v>
+        <v>72</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>101</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34">
         <v>0</v>
@@ -2531,34 +2461,35 @@
       <c r="M34">
         <v>0</v>
       </c>
+      <c r="N34" s="2"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A35">
-        <v>1013301</v>
+        <v>2000107</v>
       </c>
       <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35" t="s">
-        <v>188</v>
+        <v>1</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D35">
-        <v>209</v>
+        <v>48</v>
       </c>
       <c r="E35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>170</v>
-      </c>
-      <c r="G35" s="6">
-        <v>5376</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2572,34 +2503,35 @@
       <c r="M35">
         <v>0</v>
       </c>
+      <c r="N35" s="2"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A36">
-        <v>1013401</v>
+        <v>2000108</v>
       </c>
       <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36" t="s">
-        <v>189</v>
+        <v>1</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D36">
-        <v>215</v>
+        <v>56</v>
       </c>
       <c r="E36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>148</v>
-      </c>
-      <c r="G36" s="6">
-        <v>7680</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36" t="s">
+        <v>105</v>
       </c>
       <c r="I36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2613,34 +2545,35 @@
       <c r="M36">
         <v>0</v>
       </c>
+      <c r="N36" s="2"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A37">
-        <v>1013501</v>
+        <v>2000109</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37" t="s">
-        <v>190</v>
+        <v>1</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D37">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="E37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F37">
-        <v>121</v>
-      </c>
-      <c r="G37" s="6">
-        <v>10240</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
       </c>
       <c r="I37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2654,34 +2587,35 @@
       <c r="M37">
         <v>0</v>
       </c>
+      <c r="N37" s="2"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A38">
-        <v>1013601</v>
+        <v>2000110</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>191</v>
+        <v>108</v>
       </c>
       <c r="D38">
-        <v>358</v>
+        <v>99</v>
       </c>
       <c r="E38">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>99</v>
-      </c>
-      <c r="G38" s="6">
-        <v>12800</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>109</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2695,34 +2629,35 @@
       <c r="M38">
         <v>0</v>
       </c>
+      <c r="N38" s="2"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A39">
-        <v>1013701</v>
+        <v>2000111</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39" t="s">
-        <v>192</v>
+        <v>1</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="D39">
-        <v>467</v>
+        <v>80</v>
       </c>
       <c r="E39">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F39">
-        <v>45</v>
-      </c>
-      <c r="G39" s="6">
-        <v>15360</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>111</v>
       </c>
       <c r="I39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2736,37 +2671,38 @@
       <c r="M39">
         <v>0</v>
       </c>
+      <c r="N39" s="2"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A40">
-        <v>1013801</v>
+        <v>2000112</v>
       </c>
       <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>193</v>
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
       </c>
       <c r="D40">
-        <v>626</v>
+        <v>30</v>
       </c>
       <c r="E40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>35</v>
-      </c>
-      <c r="G40" s="6">
-        <v>19200</v>
+        <v>72</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="I40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2777,34 +2713,35 @@
       <c r="M40">
         <v>0</v>
       </c>
+      <c r="N40" s="2"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A41">
-        <v>1000002</v>
+        <v>2000113</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>101</v>
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
       </c>
       <c r="D41">
-        <v>175</v>
+        <v>21</v>
       </c>
       <c r="E41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F41">
-        <v>25</v>
-      </c>
-      <c r="G41" s="6">
-        <v>23110</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>102</v>
+        <v>72</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>115</v>
       </c>
       <c r="I41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -2818,19 +2755,20 @@
       <c r="M41">
         <v>0</v>
       </c>
+      <c r="N41" s="2"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A42">
-        <v>2000101</v>
+        <v>2000114</v>
       </c>
       <c r="B42">
         <v>1</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>103</v>
+      <c r="C42" t="s">
+        <v>116</v>
       </c>
       <c r="D42">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2841,8 +2779,8 @@
       <c r="G42">
         <v>1</v>
       </c>
-      <c r="H42" s="2" t="s">
-        <v>104</v>
+      <c r="H42" t="s">
+        <v>117</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -2863,16 +2801,16 @@
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A43">
-        <v>2000102</v>
+        <v>2000115</v>
       </c>
       <c r="B43">
         <v>1</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="D43">
-        <v>160</v>
+        <v>35</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2881,10 +2819,10 @@
         <v>72</v>
       </c>
       <c r="G43">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -2901,20 +2839,19 @@
       <c r="M43">
         <v>0</v>
       </c>
-      <c r="N43" s="2"/>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A44">
-        <v>2000103</v>
+        <v>2000116</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="D44">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2923,10 +2860,10 @@
         <v>72</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>79</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -2943,20 +2880,19 @@
       <c r="M44">
         <v>0</v>
       </c>
-      <c r="N44" s="2"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A45">
-        <v>2000104</v>
+        <v>2000117</v>
       </c>
       <c r="B45">
         <v>1</v>
       </c>
-      <c r="C45" t="s">
-        <v>109</v>
+      <c r="C45" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="D45">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2965,10 +2901,10 @@
         <v>72</v>
       </c>
       <c r="G45">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>110</v>
+        <v>90</v>
+      </c>
+      <c r="H45" t="s">
+        <v>123</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -2985,20 +2921,19 @@
       <c r="M45">
         <v>0</v>
       </c>
-      <c r="N45" s="2"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A46">
-        <v>2000105</v>
+        <v>2000118</v>
       </c>
       <c r="B46">
         <v>1</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="D46">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -3007,10 +2942,10 @@
         <v>72</v>
       </c>
       <c r="G46">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H46" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3027,20 +2962,19 @@
       <c r="M46">
         <v>0</v>
       </c>
-      <c r="N46" s="2"/>
     </row>
     <row r="47" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A47">
-        <v>2000106</v>
+        <v>2000119</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -3049,10 +2983,10 @@
         <v>72</v>
       </c>
       <c r="G47">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3069,20 +3003,19 @@
       <c r="M47">
         <v>0</v>
       </c>
-      <c r="N47" s="2"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A48">
-        <v>2000107</v>
+        <v>2000120</v>
       </c>
       <c r="B48">
         <v>1</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>128</v>
       </c>
       <c r="D48">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3091,10 +3024,10 @@
         <v>72</v>
       </c>
       <c r="G48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3111,569 +3044,28 @@
       <c r="M48">
         <v>0</v>
       </c>
-      <c r="N48" s="2"/>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A49">
-        <v>2000108</v>
-      </c>
-      <c r="B49">
-        <v>1</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D49">
-        <v>56</v>
-      </c>
-      <c r="E49">
-        <v>0</v>
-      </c>
-      <c r="F49">
-        <v>72</v>
-      </c>
-      <c r="G49">
-        <v>1</v>
-      </c>
-      <c r="H49" t="s">
-        <v>118</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="J49">
-        <v>0</v>
-      </c>
-      <c r="K49">
-        <v>0</v>
-      </c>
-      <c r="L49">
-        <v>0</v>
-      </c>
-      <c r="M49">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A50">
-        <v>2000109</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D50">
-        <v>75</v>
-      </c>
-      <c r="E50">
-        <v>0</v>
-      </c>
-      <c r="F50">
-        <v>72</v>
-      </c>
-      <c r="G50">
-        <v>1</v>
-      </c>
-      <c r="H50" t="s">
-        <v>120</v>
-      </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
-      <c r="J50">
-        <v>0</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2"/>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A51">
-        <v>2000110</v>
-      </c>
-      <c r="B51">
-        <v>1</v>
-      </c>
-      <c r="C51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D51">
-        <v>99</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>72</v>
-      </c>
-      <c r="G51">
-        <v>1</v>
-      </c>
-      <c r="H51" t="s">
-        <v>122</v>
-      </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
-      <c r="J51">
-        <v>0</v>
-      </c>
-      <c r="K51">
-        <v>0</v>
-      </c>
-      <c r="L51">
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2"/>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A52">
-        <v>2000111</v>
-      </c>
-      <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D52">
-        <v>80</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>72</v>
-      </c>
-      <c r="G52">
-        <v>1</v>
-      </c>
-      <c r="H52" t="s">
-        <v>124</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2"/>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A53">
-        <v>2000112</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="C53" t="s">
-        <v>125</v>
-      </c>
-      <c r="D53">
-        <v>30</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>72</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I53">
-        <v>0</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2"/>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A54">
-        <v>2000113</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-      <c r="C54" t="s">
-        <v>127</v>
-      </c>
-      <c r="D54">
-        <v>21</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>72</v>
-      </c>
-      <c r="G54">
-        <v>1</v>
-      </c>
-      <c r="H54" t="s">
-        <v>128</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>0</v>
-      </c>
-      <c r="L54">
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2"/>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A55">
-        <v>2000114</v>
-      </c>
-      <c r="B55">
-        <v>1</v>
-      </c>
-      <c r="C55" t="s">
-        <v>129</v>
-      </c>
-      <c r="D55">
-        <v>15</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>72</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>130</v>
-      </c>
-      <c r="I55">
-        <v>0</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>0</v>
-      </c>
-      <c r="L55">
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2"/>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A56">
-        <v>2000115</v>
-      </c>
-      <c r="B56">
-        <v>1</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D56">
-        <v>35</v>
-      </c>
-      <c r="E56">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>72</v>
-      </c>
-      <c r="G56">
-        <v>82</v>
-      </c>
-      <c r="H56" t="s">
-        <v>132</v>
-      </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>0</v>
-      </c>
-      <c r="L56">
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A57">
-        <v>2000116</v>
-      </c>
-      <c r="B57">
-        <v>1</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D57">
-        <v>28</v>
-      </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>72</v>
-      </c>
-      <c r="G57">
-        <v>79</v>
-      </c>
-      <c r="H57" t="s">
-        <v>134</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A58">
-        <v>2000117</v>
-      </c>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D58">
-        <v>15</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>72</v>
-      </c>
-      <c r="G58">
-        <v>90</v>
-      </c>
-      <c r="H58" t="s">
-        <v>136</v>
-      </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>0</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A59">
-        <v>2000118</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D59">
-        <v>10</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>72</v>
-      </c>
-      <c r="G59">
-        <v>6</v>
-      </c>
-      <c r="H59" t="s">
-        <v>138</v>
-      </c>
-      <c r="I59">
-        <v>0</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>0</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A60">
-        <v>2000119</v>
-      </c>
-      <c r="B60">
-        <v>1</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D60">
-        <v>13</v>
-      </c>
-      <c r="E60">
-        <v>0</v>
-      </c>
-      <c r="F60">
-        <v>72</v>
-      </c>
-      <c r="G60">
-        <v>3</v>
-      </c>
-      <c r="H60" t="s">
-        <v>140</v>
-      </c>
-      <c r="I60">
-        <v>0</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>0</v>
-      </c>
-      <c r="M60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.15">
-      <c r="A61">
-        <v>2000120</v>
-      </c>
-      <c r="B61">
-        <v>1</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61">
-        <v>8</v>
-      </c>
-      <c r="E61">
-        <v>0</v>
-      </c>
-      <c r="F61">
-        <v>72</v>
-      </c>
-      <c r="G61">
-        <v>2</v>
-      </c>
-      <c r="H61" t="s">
-        <v>142</v>
-      </c>
-      <c r="I61">
-        <v>0</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>0</v>
-      </c>
-      <c r="L61">
-        <v>0</v>
-      </c>
-      <c r="M61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A79" s="2"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A80" s="2"/>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A81" s="2"/>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="H82" s="2"/>
-      <c r="I82" s="2"/>
-      <c r="J82" s="2"/>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="M83" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A68" s="2"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="M70" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -3694,7 +3086,7 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C2">
         <v>1010101</v>
@@ -3702,39 +3094,39 @@
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4437,7 +3829,7 @@
         <v>0</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="D26">
         <v>2</v>
@@ -4524,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D29">
         <v>2</v>
@@ -4553,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30">
         <v>2</v>
@@ -4582,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D31">
         <v>2</v>
@@ -4611,7 +4003,7 @@
         <v>0</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D32">
         <v>2</v>
@@ -4640,7 +4032,7 @@
         <v>0</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D33">
         <v>3</v>
@@ -4669,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D34">
         <v>3</v>
@@ -4698,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D35">
         <v>3</v>
@@ -4727,7 +4119,7 @@
         <v>0</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D36">
         <v>3</v>
@@ -4756,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D37">
         <v>3</v>
@@ -4785,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D38">
         <v>4</v>
@@ -4814,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D39">
         <v>4</v>
@@ -4843,7 +4235,7 @@
         <v>0</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D40">
         <v>4</v>
@@ -6231,7 +5623,7 @@
         <v>8400</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="T33">
         <f t="shared" si="1"/>
@@ -6260,7 +5652,7 @@
         <v>8000</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="T34">
         <f t="shared" si="1"/>
@@ -6289,7 +5681,7 @@
         <v>12000</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="T35">
         <f t="shared" si="1"/>
@@ -6318,7 +5710,7 @@
         <v>16000</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="T36">
         <f t="shared" si="1"/>
@@ -6362,7 +5754,7 @@
         <v>24000</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="T37">
         <f t="shared" si="1"/>
